--- a/data/trans_orig/P1421-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1421-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>10817</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5187</v>
+        <v>5611</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19632</v>
+        <v>20594</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01558676870413029</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007474568518877804</v>
+        <v>0.008084457395192023</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02828713765239086</v>
+        <v>0.02967334226742451</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -765,19 +765,19 @@
         <v>16081</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9512</v>
+        <v>9894</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25646</v>
+        <v>24715</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02336113205583559</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01381795731423318</v>
+        <v>0.01437295793118128</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03725786854495079</v>
+        <v>0.03590458771839264</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -786,19 +786,19 @@
         <v>26898</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18062</v>
+        <v>17441</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39828</v>
+        <v>39036</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01945803147173954</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01306586776960112</v>
+        <v>0.01261705541953717</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02881168272535516</v>
+        <v>0.0282385823550058</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>683195</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>674380</v>
+        <v>673418</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>688825</v>
+        <v>688401</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9844132312958697</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.971712862347609</v>
+        <v>0.9703266577325752</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9925254314811222</v>
+        <v>0.991915542604808</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>680</v>
@@ -836,19 +836,19 @@
         <v>672270</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>662705</v>
+        <v>663636</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>678839</v>
+        <v>678457</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9766388679441644</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9627421314550492</v>
+        <v>0.9640954122816073</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9861820426857667</v>
+        <v>0.9856270420688186</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1353</v>
@@ -857,19 +857,19 @@
         <v>1355465</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1342535</v>
+        <v>1343327</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1364301</v>
+        <v>1364922</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9805419685282605</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9711883172746451</v>
+        <v>0.9717614176449942</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9869341322303989</v>
+        <v>0.9873829445804628</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>24523</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16222</v>
+        <v>15467</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36984</v>
+        <v>35952</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02549735963438832</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01686658835195065</v>
+        <v>0.01608136668971592</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03845245629877003</v>
+        <v>0.03737957589633215</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -982,19 +982,19 @@
         <v>49981</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>37545</v>
+        <v>37159</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65973</v>
+        <v>64800</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05161199003859455</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03877076240358729</v>
+        <v>0.0383718588777154</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06812624530395824</v>
+        <v>0.06691477729639501</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>70</v>
@@ -1003,19 +1003,19 @@
         <v>74504</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>59498</v>
+        <v>57870</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>92161</v>
+        <v>91739</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03859927533328208</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03082485580215795</v>
+        <v>0.02998165859705587</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04774705752841324</v>
+        <v>0.0475285858873658</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>937277</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>924816</v>
+        <v>925848</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>945578</v>
+        <v>946333</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9745026403656117</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9615475437012303</v>
+        <v>0.9626204241036679</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9831334116480496</v>
+        <v>0.9839186333102841</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>861</v>
@@ -1053,19 +1053,19 @@
         <v>918412</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>902420</v>
+        <v>903593</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>930848</v>
+        <v>931234</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9483880099614055</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9318737546960418</v>
+        <v>0.9330852227036049</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9612292375964128</v>
+        <v>0.9616281411222847</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1734</v>
@@ -1074,19 +1074,19 @@
         <v>1855689</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1838032</v>
+        <v>1838454</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1870695</v>
+        <v>1872323</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9614007246667179</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9522529424715868</v>
+        <v>0.9524714141126341</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9691751441978421</v>
+        <v>0.9700183414029441</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13936</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7914</v>
+        <v>7871</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23130</v>
+        <v>23512</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02053852177490906</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0116634188559548</v>
+        <v>0.01160075156670337</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03408992015241744</v>
+        <v>0.03465201238153849</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -1199,19 +1199,19 @@
         <v>46074</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33130</v>
+        <v>33781</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58948</v>
+        <v>59486</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0673749292130667</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04844736574102276</v>
+        <v>0.04939869846996009</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08620089202602935</v>
+        <v>0.08698859199479253</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>61</v>
@@ -1220,19 +1220,19 @@
         <v>60009</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46641</v>
+        <v>45998</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>77021</v>
+        <v>76093</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04404838234041007</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03423547755908903</v>
+        <v>0.03376340185086025</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05653549575487007</v>
+        <v>0.05585442367848399</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>664573</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>655379</v>
+        <v>654997</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>670595</v>
+        <v>670638</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9794614782250909</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9659100798475825</v>
+        <v>0.9653479876184612</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9883365811440451</v>
+        <v>0.9883992484332966</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>649</v>
@@ -1270,19 +1270,19 @@
         <v>637767</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>624893</v>
+        <v>624355</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>650711</v>
+        <v>650060</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9326250707869334</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9137991079739705</v>
+        <v>0.9130114080052071</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9515526342589772</v>
+        <v>0.9506013015300395</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1276</v>
@@ -1291,19 +1291,19 @@
         <v>1302341</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1285329</v>
+        <v>1286257</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1315709</v>
+        <v>1316352</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9559516176595899</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9434645042451305</v>
+        <v>0.944145576321516</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9657645224409113</v>
+        <v>0.9662365981491398</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>29195</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20580</v>
+        <v>20847</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>41166</v>
+        <v>41036</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03098557960024638</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02184170321438512</v>
+        <v>0.02212560445050424</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04369021361664713</v>
+        <v>0.04355191439340571</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>79</v>
@@ -1416,19 +1416,19 @@
         <v>82765</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65568</v>
+        <v>66275</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101299</v>
+        <v>100203</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07968814891206689</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06313037364731448</v>
+        <v>0.06381073892052021</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09753306536424565</v>
+        <v>0.09647785117779292</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>110</v>
@@ -1437,19 +1437,19 @@
         <v>111960</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>94267</v>
+        <v>90619</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>135763</v>
+        <v>131696</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05652182873788818</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04758942590967657</v>
+        <v>0.04574773646234615</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06853853383433293</v>
+        <v>0.0664853600390501</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>913027</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>901056</v>
+        <v>901186</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>921642</v>
+        <v>921375</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9690144203997536</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9563097863833526</v>
+        <v>0.9564480856065942</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9781582967856149</v>
+        <v>0.9778743955494957</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>918</v>
@@ -1487,19 +1487,19 @@
         <v>955847</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>937313</v>
+        <v>938409</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>973044</v>
+        <v>972337</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9203118510879331</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9024669346357543</v>
+        <v>0.903522148822207</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9368696263526856</v>
+        <v>0.9361892610794799</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1881</v>
@@ -1508,19 +1508,19 @@
         <v>1868874</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1845071</v>
+        <v>1849138</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1886567</v>
+        <v>1890215</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9434781712621119</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9314614661656671</v>
+        <v>0.9335146399609497</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9524105740903235</v>
+        <v>0.9542522635376537</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>78472</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61911</v>
+        <v>62415</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>97096</v>
+        <v>98123</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02394951982963</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01889535268700726</v>
+        <v>0.01904894691259707</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02963372077437028</v>
+        <v>0.0299471403282682</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>189</v>
@@ -1633,19 +1633,19 @@
         <v>194900</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>167998</v>
+        <v>171204</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>223458</v>
+        <v>224752</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05767647018032619</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04971533148514866</v>
+        <v>0.05066411401024312</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06612740437595363</v>
+        <v>0.06651057253294593</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>267</v>
@@ -1654,19 +1654,19 @@
         <v>273372</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>241942</v>
+        <v>242374</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>304930</v>
+        <v>306153</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04107308671545017</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03635089581225948</v>
+        <v>0.03641570638536167</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04581452737283314</v>
+        <v>0.04599832066221192</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3198071</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3179447</v>
+        <v>3178420</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3214632</v>
+        <v>3214128</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.97605048017037</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9703662792256297</v>
+        <v>0.9700528596717318</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9811046473129927</v>
+        <v>0.9809510530874029</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3108</v>
@@ -1704,19 +1704,19 @@
         <v>3184297</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3155739</v>
+        <v>3154445</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3211199</v>
+        <v>3207993</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9423235298196738</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9338725956240463</v>
+        <v>0.9334894274670542</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9502846685148514</v>
+        <v>0.9493358859897569</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6244</v>
@@ -1725,19 +1725,19 @@
         <v>6382369</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6350811</v>
+        <v>6349588</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6413799</v>
+        <v>6413367</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9589269132845498</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9541854726271671</v>
+        <v>0.9540016793377873</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9636491041877405</v>
+        <v>0.9635842936146383</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>6984</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2902</v>
+        <v>2864</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13725</v>
+        <v>13431</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00992841432944191</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004125139521160032</v>
+        <v>0.004071435804707412</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01950986639153453</v>
+        <v>0.01909258441454595</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -2090,19 +2090,19 @@
         <v>49728</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36754</v>
+        <v>37136</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66414</v>
+        <v>65093</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0713408827598658</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05272800880057265</v>
+        <v>0.05327566178995872</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09527838036438692</v>
+        <v>0.09338400831562486</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -2111,19 +2111,19 @@
         <v>56712</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42194</v>
+        <v>43461</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74420</v>
+        <v>74361</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04049391308076094</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03012739212037012</v>
+        <v>0.03103201764790601</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05313722410836771</v>
+        <v>0.05309544871648712</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>696485</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>689744</v>
+        <v>690038</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>700567</v>
+        <v>700605</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9900715856705581</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9804901336084655</v>
+        <v>0.980907415585454</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.99587486047884</v>
+        <v>0.9959285641952925</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>604</v>
@@ -2161,19 +2161,19 @@
         <v>647322</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>630636</v>
+        <v>631957</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>660296</v>
+        <v>659914</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9286591172401342</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.904721619635613</v>
+        <v>0.9066159916843751</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9472719911994274</v>
+        <v>0.9467243382100413</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1271</v>
@@ -2182,19 +2182,19 @@
         <v>1343807</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1326099</v>
+        <v>1326158</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1358325</v>
+        <v>1357058</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9595060869192391</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9468627758916321</v>
+        <v>0.9469045512835128</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9698726078796299</v>
+        <v>0.9689679823520938</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>10584</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5312</v>
+        <v>5618</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>19631</v>
+        <v>19662</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01039708921657959</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.005218087390593091</v>
+        <v>0.005519331792534464</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01928446999260705</v>
+        <v>0.01931567364545948</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -2307,19 +2307,19 @@
         <v>48178</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36600</v>
+        <v>36228</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64137</v>
+        <v>64205</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04682191507701521</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03556928129107909</v>
+        <v>0.03520815430392103</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06233120257802124</v>
+        <v>0.06239703583434928</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>55</v>
@@ -2328,19 +2328,19 @@
         <v>58762</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44596</v>
+        <v>44552</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73936</v>
+        <v>75311</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0287076076846139</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02178686208520456</v>
+        <v>0.02176515198394567</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03612061176009659</v>
+        <v>0.03679250789799953</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>1007363</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>998316</v>
+        <v>998285</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1012635</v>
+        <v>1012329</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9896029107834204</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9807155300073941</v>
+        <v>0.9806843263545406</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.994781912609407</v>
+        <v>0.9944806682074658</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>893</v>
@@ -2378,19 +2378,19 @@
         <v>980795</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>964836</v>
+        <v>964768</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>992373</v>
+        <v>992745</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9531780849229848</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9376687974219783</v>
+        <v>0.9376029641656507</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9644307187089208</v>
+        <v>0.964791845696079</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1819</v>
@@ -2399,19 +2399,19 @@
         <v>1988159</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1972985</v>
+        <v>1971610</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2002325</v>
+        <v>2002369</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9712923923153861</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9638793882399028</v>
+        <v>0.9632074921020003</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9782131379147952</v>
+        <v>0.9782348480160542</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>8000</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3771</v>
+        <v>3876</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17212</v>
+        <v>17088</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01055873689483801</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004976752020459768</v>
+        <v>0.005116496983095292</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02271842574335474</v>
+        <v>0.02255423652723533</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -2524,19 +2524,19 @@
         <v>40290</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27754</v>
+        <v>28881</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54567</v>
+        <v>57345</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05184136049337669</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03571179854084716</v>
+        <v>0.03716091924182253</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07021151765768188</v>
+        <v>0.07378669548991611</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -2545,19 +2545,19 @@
         <v>48289</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36119</v>
+        <v>36002</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66554</v>
+        <v>67055</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03146298369089755</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02353350919632571</v>
+        <v>0.02345709610255124</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04336310666662144</v>
+        <v>0.04369005557836733</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>749623</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>740411</v>
+        <v>740535</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>753852</v>
+        <v>753747</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.989441263105162</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9772815742566454</v>
+        <v>0.9774457634727649</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9950232479795402</v>
+        <v>0.9948835030169048</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>670</v>
@@ -2595,19 +2595,19 @@
         <v>736884</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>722607</v>
+        <v>719829</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>749420</v>
+        <v>748293</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9481586395066233</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9297884823423181</v>
+        <v>0.9262133045100839</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9642882014591528</v>
+        <v>0.9628390807581775</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1352</v>
@@ -2616,19 +2616,19 @@
         <v>1486508</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1468243</v>
+        <v>1467742</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1498678</v>
+        <v>1498795</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9685370163091025</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9566368933333785</v>
+        <v>0.9563099444216325</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9764664908036741</v>
+        <v>0.9765429038974488</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>15719</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9512</v>
+        <v>9648</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25467</v>
+        <v>25534</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01660360091478316</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01004740502694716</v>
+        <v>0.0101915088560634</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02690041313842693</v>
+        <v>0.02697157767899392</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>51</v>
@@ -2741,19 +2741,19 @@
         <v>51560</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39282</v>
+        <v>39867</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65736</v>
+        <v>68395</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04901617925927579</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0373441031383771</v>
+        <v>0.03790002176228696</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06249298505319437</v>
+        <v>0.06502056316849146</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -2762,19 +2762,19 @@
         <v>67279</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>52195</v>
+        <v>52024</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>83970</v>
+        <v>86324</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03366286889129999</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02611575046911925</v>
+        <v>0.02603006179438603</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04201424482189409</v>
+        <v>0.04319220912011137</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>930990</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>921242</v>
+        <v>921175</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>937197</v>
+        <v>937061</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9833963990852168</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9730995868615729</v>
+        <v>0.9730284223210054</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9899525949730528</v>
+        <v>0.9898084911439365</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>952</v>
@@ -2812,19 +2812,19 @@
         <v>1000341</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>986165</v>
+        <v>983506</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1012619</v>
+        <v>1012034</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9509838207407242</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9375070149468057</v>
+        <v>0.9349794368315086</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9626558968616229</v>
+        <v>0.9620999782377131</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1845</v>
@@ -2833,19 +2833,19 @@
         <v>1931331</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1914640</v>
+        <v>1912286</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1946415</v>
+        <v>1946586</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9663371311087</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9579857551781059</v>
+        <v>0.9568077908798887</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9738842495308808</v>
+        <v>0.9739699382056139</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>41286</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29778</v>
+        <v>29833</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>54787</v>
+        <v>56874</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01205177300091798</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008692509128400736</v>
+        <v>0.008708487229741897</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01599258400972419</v>
+        <v>0.01660179312838948</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>177</v>
@@ -2958,19 +2958,19 @@
         <v>189757</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>164997</v>
+        <v>162675</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>219843</v>
+        <v>217980</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05337590461030467</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04641144903311164</v>
+        <v>0.04575819345754485</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06183879413671193</v>
+        <v>0.06131481386291485</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>217</v>
@@ -2979,19 +2979,19 @@
         <v>231043</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>200104</v>
+        <v>204063</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>261507</v>
+        <v>262326</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03309669164588029</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02866467287516117</v>
+        <v>0.02923184381377163</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03746070802084724</v>
+        <v>0.03757794096337243</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3384462</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3370961</v>
+        <v>3368874</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3395970</v>
+        <v>3395915</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.987948226999082</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9840074159902755</v>
+        <v>0.9833982068716109</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9913074908715993</v>
+        <v>0.9912915127702584</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3119</v>
@@ -3029,19 +3029,19 @@
         <v>3365341</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3335255</v>
+        <v>3337118</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3390101</v>
+        <v>3392423</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9466240953896954</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.938161205863288</v>
+        <v>0.9386851861370852</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9535885509668883</v>
+        <v>0.9542418065424552</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6287</v>
@@ -3050,19 +3050,19 @@
         <v>6749804</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6719340</v>
+        <v>6718521</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6780743</v>
+        <v>6776784</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9669033083541198</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9625392919791534</v>
+        <v>0.9624220590366276</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9713353271248389</v>
+        <v>0.9707681561862284</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>11744</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5944</v>
+        <v>6150</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20824</v>
+        <v>20965</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01740392105202885</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0088080857132115</v>
+        <v>0.009114397971924081</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03085923527154891</v>
+        <v>0.03106874888778033</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -3415,19 +3415,19 @@
         <v>31757</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23280</v>
+        <v>21657</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44174</v>
+        <v>44266</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04719893159550902</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03459929070789401</v>
+        <v>0.03218710755459744</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06565291994116586</v>
+        <v>0.06578989134599625</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -3436,19 +3436,19 @@
         <v>43501</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32053</v>
+        <v>31027</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57682</v>
+        <v>58317</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03227974838412377</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02378459385882079</v>
+        <v>0.0230234850562674</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04280195507776621</v>
+        <v>0.04327356806253404</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>663056</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>653976</v>
+        <v>653835</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>668856</v>
+        <v>668650</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9825960789479712</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9691407647284511</v>
+        <v>0.9689312511122196</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9911919142867885</v>
+        <v>0.9908856020280759</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>635</v>
@@ -3486,19 +3486,19 @@
         <v>641082</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>628665</v>
+        <v>628573</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>649559</v>
+        <v>651182</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.952801068404491</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9343470800588336</v>
+        <v>0.9342101086540038</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9654007092921058</v>
+        <v>0.9678128924454026</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1276</v>
@@ -3507,19 +3507,19 @@
         <v>1304138</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1289957</v>
+        <v>1289322</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1315586</v>
+        <v>1316612</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9677202516158763</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9571980449222337</v>
+        <v>0.956726431937466</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9762154061411792</v>
+        <v>0.9769765149437325</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>10012</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4937</v>
+        <v>5066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17378</v>
+        <v>18084</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009791873004987841</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004828537522328993</v>
+        <v>0.004954569930655292</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01699700931269162</v>
+        <v>0.01768766892165887</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -3632,19 +3632,19 @@
         <v>61466</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46656</v>
+        <v>48166</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79794</v>
+        <v>81065</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05893648217441524</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04473581938270219</v>
+        <v>0.04618417333686894</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07651108790881325</v>
+        <v>0.07772944897139414</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>66</v>
@@ -3653,19 +3653,19 @@
         <v>71477</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55124</v>
+        <v>54336</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90811</v>
+        <v>88687</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03460786106040147</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0266900044029565</v>
+        <v>0.02630822305239576</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04396884169092818</v>
+        <v>0.04294069244540912</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>1012419</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1005053</v>
+        <v>1004347</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1017494</v>
+        <v>1017365</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9902081269950122</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9830029906873083</v>
+        <v>0.9823123310783411</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.995171462477671</v>
+        <v>0.9950454300693446</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>921</v>
@@ -3703,19 +3703,19 @@
         <v>981447</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>963119</v>
+        <v>961848</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>996257</v>
+        <v>994747</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9410635178255847</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9234889120911866</v>
+        <v>0.9222705510286059</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9552641806172978</v>
+        <v>0.9538158266631312</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1862</v>
@@ -3724,19 +3724,19 @@
         <v>1993867</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1974533</v>
+        <v>1976657</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2010220</v>
+        <v>2011008</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9653921389395985</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9560311583090715</v>
+        <v>0.9570593075545909</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9733099955970435</v>
+        <v>0.9736917769476042</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>10960</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5227</v>
+        <v>5017</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19853</v>
+        <v>19288</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01442927444808491</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006881708724665422</v>
+        <v>0.006605435741234703</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02613781089705792</v>
+        <v>0.02539418768840391</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -3849,19 +3849,19 @@
         <v>38033</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27435</v>
+        <v>27250</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52065</v>
+        <v>51694</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04844916349993406</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03494889454445353</v>
+        <v>0.03471307435374432</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06632398198522109</v>
+        <v>0.06585078076183298</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>46</v>
@@ -3870,19 +3870,19 @@
         <v>48993</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36596</v>
+        <v>36397</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>65052</v>
+        <v>64573</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03171958945714309</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0236934181060733</v>
+        <v>0.02356484523937323</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04211699766896707</v>
+        <v>0.04180640045109954</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>748592</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>739699</v>
+        <v>740264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>754325</v>
+        <v>754535</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9855707255519151</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.973862189102942</v>
+        <v>0.9746058123115959</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9931182912753344</v>
+        <v>0.9933945642587653</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>700</v>
@@ -3920,19 +3920,19 @@
         <v>746978</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>732946</v>
+        <v>733317</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>757576</v>
+        <v>757761</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9515508365000659</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9336760180147786</v>
+        <v>0.934149219238167</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9650511054555464</v>
+        <v>0.9652869256462556</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1386</v>
@@ -3941,19 +3941,19 @@
         <v>1495570</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1479511</v>
+        <v>1479990</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1507967</v>
+        <v>1508166</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.968280410542857</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9578830023310332</v>
+        <v>0.9581935995489003</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9763065818939267</v>
+        <v>0.9764351547606268</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>15160</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9263</v>
+        <v>8725</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25201</v>
+        <v>24071</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01616930585979554</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009880054866963342</v>
+        <v>0.009305579023455123</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02687919145776597</v>
+        <v>0.02567415030431466</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>55</v>
@@ -4066,19 +4066,19 @@
         <v>63443</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>48299</v>
+        <v>48070</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>82315</v>
+        <v>81828</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06078176473004557</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04627311224454081</v>
+        <v>0.0460540936258092</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07886241614482926</v>
+        <v>0.07839589930464215</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -4087,19 +4087,19 @@
         <v>78603</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>60383</v>
+        <v>60805</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>97700</v>
+        <v>97098</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03967128279627333</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03047562169855086</v>
+        <v>0.03068855494493121</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04930986538099338</v>
+        <v>0.04900623056493478</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>922407</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>912366</v>
+        <v>913496</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>928304</v>
+        <v>928842</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9838306941402044</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9731208085422342</v>
+        <v>0.9743258496956854</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9901199451330367</v>
+        <v>0.9906944209765449</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>904</v>
@@ -4137,19 +4137,19 @@
         <v>980336</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>961464</v>
+        <v>961951</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>995480</v>
+        <v>995709</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9392182352699544</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9211375838551706</v>
+        <v>0.9216041006953578</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9537268877554591</v>
+        <v>0.9539459063741906</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1821</v>
@@ -4158,19 +4158,19 @@
         <v>1902743</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1883646</v>
+        <v>1884248</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1920963</v>
+        <v>1920541</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9603287172037267</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9506901346190068</v>
+        <v>0.9509937694350653</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9695243783014491</v>
+        <v>0.9693114450550689</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>47875</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>36431</v>
+        <v>34793</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>64970</v>
+        <v>63515</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01410440066938834</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01073295889843619</v>
+        <v>0.01025038830810581</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01914065159788012</v>
+        <v>0.01871196765547217</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>178</v>
@@ -4283,19 +4283,19 @@
         <v>194699</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>167913</v>
+        <v>169647</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>225019</v>
+        <v>224168</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05492917315418368</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04737230835116891</v>
+        <v>0.047861442112493</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06348332413933093</v>
+        <v>0.0632430416923314</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>224</v>
@@ -4304,19 +4304,19 @@
         <v>242574</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>211947</v>
+        <v>214139</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>276530</v>
+        <v>278268</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03495861104430423</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03054471936183459</v>
+        <v>0.03086069574819027</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03985214285191605</v>
+        <v>0.04010267353608451</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3346475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3329380</v>
+        <v>3330835</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3357919</v>
+        <v>3359557</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9858955993306117</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9808593484021197</v>
+        <v>0.9812880323445271</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9892670411015635</v>
+        <v>0.989749611691894</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3160</v>
@@ -4354,19 +4354,19 @@
         <v>3349843</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3319523</v>
+        <v>3320374</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3376629</v>
+        <v>3374895</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9450708268458163</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9365166758606689</v>
+        <v>0.9367569583076685</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9526276916488309</v>
+        <v>0.9521385578875067</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6345</v>
@@ -4375,19 +4375,19 @@
         <v>6696318</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6662362</v>
+        <v>6660624</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6726945</v>
+        <v>6724753</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9650413889556958</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9601478571480839</v>
+        <v>0.9598973264639155</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9694552806381654</v>
+        <v>0.9691393042518098</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>30945</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21537</v>
+        <v>21988</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42316</v>
+        <v>42746</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04480184138132676</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03118089266690999</v>
+        <v>0.03183447166770405</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06126446186041358</v>
+        <v>0.06188682074716119</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>120</v>
@@ -4740,19 +4740,19 @@
         <v>67581</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>56136</v>
+        <v>55560</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>81501</v>
+        <v>80855</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09223272160492635</v>
+        <v>0.09223272160492633</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07661252283490765</v>
+        <v>0.07582715020045631</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1112304319901369</v>
+        <v>0.1103490907472514</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>155</v>
@@ -4761,19 +4761,19 @@
         <v>98526</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>83815</v>
+        <v>82357</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>117543</v>
+        <v>117236</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06921723722977995</v>
+        <v>0.06921723722977997</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05888260297712401</v>
+        <v>0.05785782086764833</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08257690385744337</v>
+        <v>0.08236191148134375</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>659765</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>648394</v>
+        <v>647964</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>669173</v>
+        <v>668722</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9551981586186732</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9387355381395864</v>
+        <v>0.938113179252839</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.96881910733309</v>
+        <v>0.9681655283322963</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1118</v>
@@ -4811,19 +4811,19 @@
         <v>665141</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>651221</v>
+        <v>651867</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>676586</v>
+        <v>677162</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9077672783950737</v>
+        <v>0.9077672783950734</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8887695680098631</v>
+        <v>0.8896509092527485</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9233874771650923</v>
+        <v>0.9241728497995437</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1813</v>
@@ -4832,19 +4832,19 @@
         <v>1324905</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1305888</v>
+        <v>1306195</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1339616</v>
+        <v>1341074</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.93078276277022</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9174230961425567</v>
+        <v>0.9176380885186566</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9411173970228759</v>
+        <v>0.9421421791323517</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>39784</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28549</v>
+        <v>28169</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56911</v>
+        <v>55628</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0379288537024163</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02721782814565286</v>
+        <v>0.02685510588835133</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05425645900137044</v>
+        <v>0.05303421793219897</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>156</v>
@@ -4957,19 +4957,19 @@
         <v>103792</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>88368</v>
+        <v>87891</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>121265</v>
+        <v>120813</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09705284964590685</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08262999442500678</v>
+        <v>0.08218446975436297</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1133906238015153</v>
+        <v>0.1129685657968409</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>195</v>
@@ -4978,19 +4978,19 @@
         <v>143577</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>123176</v>
+        <v>122904</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>166331</v>
+        <v>166555</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.06777726752230928</v>
+        <v>0.06777726752230927</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05814697475899869</v>
+        <v>0.05801872290341071</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07851862453813355</v>
+        <v>0.07862480085337741</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1009133</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>992006</v>
+        <v>993289</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1020368</v>
+        <v>1020748</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9620711462975837</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9457435409986295</v>
+        <v>0.946965782067801</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9727821718543472</v>
+        <v>0.9731448941116487</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1358</v>
@@ -5028,19 +5028,19 @@
         <v>965649</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>948176</v>
+        <v>948628</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>981073</v>
+        <v>981550</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9029471503540931</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8866093761984846</v>
+        <v>0.8870314342031592</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9173700055749929</v>
+        <v>0.9178155302456371</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2283</v>
@@ -5049,19 +5049,19 @@
         <v>1974781</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1952027</v>
+        <v>1951803</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1995182</v>
+        <v>1995454</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9322227324776907</v>
+        <v>0.9322227324776905</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9214813754618667</v>
+        <v>0.9213751991466227</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9418530252410012</v>
+        <v>0.9419812770965894</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>36389</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25863</v>
+        <v>26152</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50684</v>
+        <v>50694</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04541725645333448</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03227972068872074</v>
+        <v>0.03264002015297023</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06325906848866199</v>
+        <v>0.0632714771917349</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -5174,19 +5174,19 @@
         <v>109451</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91833</v>
+        <v>92556</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>126402</v>
+        <v>128524</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1351097387307502</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.113362204492619</v>
+        <v>0.1142539266226366</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1560347848248896</v>
+        <v>0.158653992122546</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>177</v>
@@ -5195,19 +5195,19 @@
         <v>145840</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>125967</v>
+        <v>125181</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>169423</v>
+        <v>167458</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09051037768280501</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07817688839056229</v>
+        <v>0.07768950885320289</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1051464475318861</v>
+        <v>0.1039267036989338</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>764828</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>750533</v>
+        <v>750523</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>775354</v>
+        <v>775065</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9545827435466655</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.936740931511338</v>
+        <v>0.9367285228082651</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9677202793112791</v>
+        <v>0.9673599798470299</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>899</v>
@@ -5245,19 +5245,19 @@
         <v>700637</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>683686</v>
+        <v>681564</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>718255</v>
+        <v>717532</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8648902612692498</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8439652151751103</v>
+        <v>0.8413460078774541</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8866377955073811</v>
+        <v>0.8857460733773633</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1541</v>
@@ -5266,19 +5266,19 @@
         <v>1465465</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1441882</v>
+        <v>1443847</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1485338</v>
+        <v>1486124</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9094896223171951</v>
+        <v>0.9094896223171949</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8948535524681138</v>
+        <v>0.8960732963010662</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9218231116094379</v>
+        <v>0.9223104911467973</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>53144</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39221</v>
+        <v>40227</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>73144</v>
+        <v>71818</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05383174352206526</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03972877530074797</v>
+        <v>0.0407471149671628</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07409020121725382</v>
+        <v>0.07274671729766127</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>194</v>
@@ -5391,19 +5391,19 @@
         <v>141631</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>121182</v>
+        <v>123553</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>162715</v>
+        <v>166565</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1267971298953041</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1084898013984352</v>
+        <v>0.1106128538220136</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1456734240253707</v>
+        <v>0.1491199132320935</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>244</v>
@@ -5412,19 +5412,19 @@
         <v>194775</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>169738</v>
+        <v>168766</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>221692</v>
+        <v>223313</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09256417099163997</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08066580732032816</v>
+        <v>0.08020377239361672</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1053562767090417</v>
+        <v>0.1061262415983355</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>934085</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>914085</v>
+        <v>915411</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>948008</v>
+        <v>947002</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9461682564779349</v>
+        <v>0.9461682564779348</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9259097987827462</v>
+        <v>0.9272532827023388</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9602712246992521</v>
+        <v>0.9592528850328371</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1365</v>
@@ -5462,19 +5462,19 @@
         <v>975356</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>954272</v>
+        <v>950422</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>995805</v>
+        <v>993434</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.873202870104696</v>
+        <v>0.8732028701046962</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.854326575974629</v>
+        <v>0.8508800867679066</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8915101986015647</v>
+        <v>0.8893871461779863</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2319</v>
@@ -5483,19 +5483,19 @@
         <v>1909441</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1882524</v>
+        <v>1880903</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1934478</v>
+        <v>1935450</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.90743582900836</v>
+        <v>0.9074358290083598</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.894643723290958</v>
+        <v>0.8938737584016644</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9193341926796719</v>
+        <v>0.9197962276063832</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>160263</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>133585</v>
+        <v>136598</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>189282</v>
+        <v>188700</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04542497662309362</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03786351220285165</v>
+        <v>0.03871754137461665</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05365030135680382</v>
+        <v>0.05348538036224133</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>615</v>
@@ -5608,19 +5608,19 @@
         <v>422455</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>389271</v>
+        <v>388796</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>457652</v>
+        <v>458670</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1132817896216601</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1043835923584472</v>
+        <v>0.1042560515920733</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1227200848699631</v>
+        <v>0.1229930431725637</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>771</v>
@@ -5629,19 +5629,19 @@
         <v>582717</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>539596</v>
+        <v>541488</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>627146</v>
+        <v>626243</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08029384148151097</v>
+        <v>0.08029384148151099</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07435207603476442</v>
+        <v>0.07461281099449839</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08641582554305552</v>
+        <v>0.08629134331677588</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3367810</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3338791</v>
+        <v>3339373</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3394488</v>
+        <v>3391475</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9545750233769064</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9463496986431958</v>
+        <v>0.9465146196377585</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.962136487797148</v>
+        <v>0.9612824586253834</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4740</v>
@@ -5679,19 +5679,19 @@
         <v>3306783</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3271586</v>
+        <v>3270568</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3339967</v>
+        <v>3340442</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8867182103783399</v>
+        <v>0.88671821037834</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8772799151300371</v>
+        <v>0.8770069568274363</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.895616407641553</v>
+        <v>0.895743948407927</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7956</v>
@@ -5700,19 +5700,19 @@
         <v>6674593</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6630164</v>
+        <v>6631067</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6717714</v>
+        <v>6715822</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9197061585184889</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9135841744569443</v>
+        <v>0.9137086566832242</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9256479239652353</v>
+        <v>0.9253871890055015</v>
       </c>
     </row>
     <row r="18">
